--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Udm Automation\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROJECTS\Automation\UDM---Automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C3F5FC-C2EB-4990-BB51-CAA478969EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D4C8B7-2489-49BC-A10E-5147BBB63674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,5 +529,6 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{437894E3-30A2-46D2-84F3-EA69C709F9D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROJECTS\Automation\UDM---Automation\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Udm Automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D4C8B7-2489-49BC-A10E-5147BBB63674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8CB8F1-7FD7-46BE-8337-33633DC5A8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Table Name</t>
   </si>
@@ -95,10 +95,49 @@
     <t>Element ID</t>
   </si>
   <si>
-    <t>https://axis.ehr.com/en-US/survey-setup/surveys/48/organization</t>
-  </si>
-  <si>
-    <t>https://axis.ehr.com/en-US/survey-setup/surveys/48/incumbent</t>
+    <t>每股／每單位獎酬的帳面價值</t>
+  </si>
+  <si>
+    <t>針對每筆股權型獎酬，請填入授與日的公允價值。公允價值為該獎酬於授與日的每股／每單位價值，並依國際財務報導準則（IFRS）第 2 號（IFRS 2）或各國當地一般公認會計原則（GAAP）之等同規範計算。請注意，授與日公允價值可能由貴司財會部門提供。</t>
+  </si>
+  <si>
+    <t>會計成本應反映獎酬每股/單位的價格，並請勿針對價格做任何調整。任何計畫在未來特定時間給付的獎酬，也請將金額填入。所有數值應四捨五入至小數點後兩位數（例如52.25請填入52.25)。幣別須與授予價幣別相同。</t>
+  </si>
+  <si>
+    <t>實際佣金金額</t>
+  </si>
+  <si>
+    <t>最近一個會計年度實際取得的年佣金總額。</t>
+  </si>
+  <si>
+    <t>新進員工因年資只取得部份銷售佣金者，請估算一整年金額。  若該員工銷售佣金資格為"N"，此欄請留白；若該員工銷售佣金資格為"Y"則必須填寫此欄，若未領到佣金者需填寫金額為"0"</t>
+  </si>
+  <si>
+    <t>地區／城市代碼</t>
+  </si>
+  <si>
+    <t>該員工所隸屬主要辦公地點的地區／城市代碼。</t>
+  </si>
+  <si>
+    <t>請參閱國家代碼索引標籤。    對於遠端員工，請報告其被指派的名義辦事處或地點    對於除莫斯科、莫斯科地區、聖彼得堡和列寧格勒地區以外的所有地區，對地區首府城市和地區首府城市以外的地區內的在職人員使用相同的地區/城市代碼（例如，RU033 適用於新西伯利亞和新西伯利亞地區/州）。    對於莫斯科和聖彼得堡的城市和周邊地區，可以使用更細緻的代碼，並應用如下：  - 將 RU001 應用於莫斯科的在職者  - 將 RU002 應用於莫斯科地區/重鎮的在職者  - 將 RU003 應用於聖彼得堡的在職者  - 將 RU004 應用於列寧格勒地區/下八個州的在職者。</t>
+  </si>
+  <si>
+    <t>B2B（企業對企業）媒體</t>
+  </si>
+  <si>
+    <t>組織所涉足的媒體產業別。</t>
+  </si>
+  <si>
+    <t>N-否  Y-是</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Guidelines</t>
   </si>
 </sst>
 </file>
@@ -427,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +478,11 @@
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -455,8 +495,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -469,11 +518,17 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -486,11 +541,17 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -503,11 +564,17 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -520,15 +587,18 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{437894E3-30A2-46D2-84F3-EA69C709F9D6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="5" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>